--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="176">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:02:06+00:00</t>
+    <t>2024-11-07T09:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,22 +433,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>ContactPoint.extension:as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t>as-mailbox-mss-metadata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-mailbox-mss-metadata}
-</t>
-  </si>
-  <si>
-    <t>Les attributs 'responsible' et 'phone' ne sont pas disponibles en accès libre.</t>
-  </si>
-  <si>
-    <t>Extension contenant les métadonnées de la mailbox mss.</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
@@ -898,7 +882,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -907,9 +891,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -917,7 +901,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1947,17 +1931,15 @@
         <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>
@@ -1969,7 +1951,7 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>136</v>
@@ -1990,7 +1972,7 @@
         <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>76</v>
@@ -2005,13 +1987,13 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2029,36 +2011,36 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2072,25 +2054,29 @@
         <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2099,7 +2085,7 @@
         <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>76</v>
@@ -2114,31 +2100,31 @@
         <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2147,27 +2133,27 @@
         <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2175,34 +2161,34 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2227,13 +2213,13 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
@@ -2251,7 +2237,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2266,21 +2252,21 @@
         <v>133</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2297,26 +2283,24 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2340,31 +2324,31 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2379,13 +2363,13 @@
         <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -2413,7 +2397,7 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>171</v>
@@ -2424,9 +2408,7 @@
       <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2490,126 +2472,17 @@
         <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM15">
+  <autoFilter ref="A1:AM14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2619,7 +2492,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:06:45+00:00</t>
+    <t>2024-11-07T09:07:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:07:03+00:00</t>
+    <t>2024-11-07T09:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:34:03+00:00</t>
+    <t>2024-11-07T09:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T09:37:15+00:00</t>
+    <t>2024-11-13T08:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
+++ b/nr-test-bug-org/ig/StructureDefinition-as-mailbox-mss.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T08:22:11+00:00</t>
+    <t>2024-11-13T08:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
